--- a/document/算法.xlsx
+++ b/document/算法.xlsx
@@ -201,7 +201,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>k=500000</t>
+    <t>k=100000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/document/算法.xlsx
+++ b/document/算法.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="个人及庄园算法" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>初始</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -169,39 +170,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>个人势力=庄园建筑势力*股份+个人战斗力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股份算法：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器需要记录的数据：某玩家为升级庄园建筑花费的资源在花费之际价值的黄金、某玩家为升级庄园建筑花费的建筑队列总时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=100000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某玩家贡献算法：某玩家为升级庄园建筑花费的资源价值总量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某玩家占股算法：1/n+[（（个人总贡献+k）/（庄园内所有玩家总贡献+nk））-1/n]*0.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>庄园势力=所有建筑势力之和+所有人个人战斗力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>个人势力=庄园建筑势力*股份+个人战斗力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股份算法：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>某玩家领取到的资源=（1+k*n）*某玩家占股*从上次该玩家领取某建筑资源的时间算起该建筑产生的资源  * 事件系数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k：人数buff加成  n：该庄园玩家人数  事件系数：世界状态、个人状态等</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>某玩家占股算法：1/n+[（（个人总贡献+k）/（庄园内所有玩家总贡献+nk））-1/n]*0.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器需要记录的数据：某玩家为升级庄园建筑花费的资源在花费之际价值的黄金、某玩家为升级庄园建筑花费的建筑队列总时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>某玩家贡献算法：某玩家为升级庄园建筑花费的资源价值黄金总量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k=100000</t>
+    <t>个人战斗力算法：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -728,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T33"/>
+  <dimension ref="A3:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1147,7 +1144,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C23" s="25"/>
       <c r="I23" s="25"/>
@@ -1155,7 +1152,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="25"/>
       <c r="I24" s="25"/>
@@ -1163,25 +1160,17 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -1189,7 +1178,12 @@
         <v>41</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1197,4 +1191,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/算法.xlsx
+++ b/document/算法.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13710"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人及庄园算法" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>初始</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -199,6 +200,196 @@
   </si>
   <si>
     <t>个人战斗力算法：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙的耐久需要被修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸入侵强度大致算法：=k4（k1*资源建筑+k2*武器建筑+k3*战力最高的个人战力）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸入侵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门机枪打死了20只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余博文打死了10只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易君健打死了8只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵谊鲲打死了9只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门被攻破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸开始疯狂破坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余博文打死了4只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易君健打死了3只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余博文打死了3只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵谊鲲打死了3只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一只僵尸被余博文击杀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵谊鲲打死了9只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易君健被僵尸重创 受伤，失去战斗能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结果：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 大门损坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 资源损失：345000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 黄金损失：20000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 血量损失：80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸入侵后，把门和墙任意耐久度打掉，就算入侵成功，就消耗资源，否则算入侵失败，仅仅消耗墙的耐久</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸入侵算法：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄园1级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄园2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄园3级</t>
+  </si>
+  <si>
+    <t>庄园4级</t>
+  </si>
+  <si>
+    <t>庄园5级</t>
+  </si>
+  <si>
+    <t>庄园6级</t>
+  </si>
+  <si>
+    <t>庄园7级</t>
+  </si>
+  <si>
+    <t>庄园8级</t>
+  </si>
+  <si>
+    <t>庄园9级</t>
+  </si>
+  <si>
+    <t>庄园10级</t>
+  </si>
+  <si>
+    <t>庄园11级</t>
+  </si>
+  <si>
+    <t>庄园12级</t>
+  </si>
+  <si>
+    <t>庄园13级</t>
+  </si>
+  <si>
+    <t>庄园14级</t>
+  </si>
+  <si>
+    <t>庄园15级</t>
+  </si>
+  <si>
+    <t>庄园16级</t>
+  </si>
+  <si>
+    <t>庄园17级</t>
+  </si>
+  <si>
+    <t>庄园18级</t>
+  </si>
+  <si>
+    <t>庄园19级</t>
+  </si>
+  <si>
+    <t>庄园20级</t>
+  </si>
+  <si>
+    <t>领取类仓库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大仓库资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注COC掠夺比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限对应资源</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +442,30 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -272,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -360,13 +575,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,12 +675,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -460,6 +721,3766 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>267433</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>194079</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="图片 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="-100000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="2695575"/>
+          <a:ext cx="3077308" cy="5556654"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="圆角矩形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="2714625"/>
+          <a:ext cx="3057525" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000">
+            <a:alpha val="21961"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>72259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243053</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>60260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429501" y="6358759"/>
+          <a:ext cx="3100552" cy="5474401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>307730</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>232996</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>117230</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9908930" y="6359769"/>
+          <a:ext cx="611066" cy="1301261"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:alpha val="32941"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>199487</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="tx2">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="2686051"/>
+          <a:ext cx="504288" cy="559078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361293</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>65689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>144518</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="圆角矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9962493" y="11171839"/>
+          <a:ext cx="469025" cy="589237"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+            <a:alpha val="72157"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>674078</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>197423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>432291</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>90278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7532078" y="11303573"/>
+          <a:ext cx="444013" cy="435780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66730</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>18966</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="文本框 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8982130" y="7562766"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>29101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>117231</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>87118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:duotone>
+            <a:schemeClr val="accent4">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="9668401"/>
+          <a:ext cx="231531" cy="229467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>665237</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457301" cy="132139"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="文本框 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7523237" y="11611062"/>
+          <a:ext cx="457301" cy="132139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>查看庄园</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>339862</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>75467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146070</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>160909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9941062" y="1447067"/>
+          <a:ext cx="492007" cy="599792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>336410</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11621</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="630114" cy="153464"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="文本框 45"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10623410" y="3250121"/>
+          <a:ext cx="630114" cy="153464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>刘德华</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152172</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="458908" cy="219884"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="文本框 46"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10715620" y="2971572"/>
+          <a:ext cx="458908" cy="219884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Lv.12</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>531663</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>39603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>184547</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>131174</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="圆角矩形 47"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10132863" y="7164303"/>
+          <a:ext cx="338684" cy="91571"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9">
+            <a:alpha val="69020"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>386954</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495942</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9988154" y="7136370"/>
+          <a:ext cx="108988" cy="122658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>494111</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107865</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="图片 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982201" y="7296057"/>
+          <a:ext cx="113110" cy="107958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>498908</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>39613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982202" y="7435660"/>
+          <a:ext cx="117906" cy="109653"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>531662</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>174061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>184546</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>56844</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="圆角矩形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10132862" y="7298761"/>
+          <a:ext cx="338684" cy="92333"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9">
+            <a:alpha val="69020"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>531660</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>184544</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>206289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="圆角矩形 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10132860" y="7453518"/>
+          <a:ext cx="338684" cy="87021"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9">
+            <a:alpha val="69020"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>537614</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>39603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="圆角矩形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10138814" y="7164303"/>
+          <a:ext cx="219623" cy="79664"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="69020"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>531659</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>188432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>685524</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42588</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="圆角矩形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10132859" y="7313132"/>
+          <a:ext cx="153865" cy="63706"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050">
+            <a:alpha val="69020"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>537613</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>125221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>136921</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="圆角矩形 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10138813" y="7459471"/>
+          <a:ext cx="285108" cy="75114"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:alpha val="69020"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>413325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>143000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>196549</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="圆角矩形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10700325" y="3171950"/>
+          <a:ext cx="469024" cy="71602"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9">
+            <a:alpha val="69020"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>367862</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133399</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="图片 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9969062" y="11196574"/>
+          <a:ext cx="451338" cy="412765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>367862</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>163719</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457301" cy="132139"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="文本框 58"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9969062" y="11479419"/>
+          <a:ext cx="457301" cy="132139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>背包</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>423496</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>153865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594289</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>202122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="圆角矩形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10710496" y="3182815"/>
+          <a:ext cx="170793" cy="48257"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+            <a:alpha val="69020"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>532087</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="圆角矩形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8761687" y="2705100"/>
+          <a:ext cx="1830113" cy="194896"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000">
+            <a:alpha val="69804"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>73522</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1210588" cy="268407"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="文本框 61"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8303122" y="6337789"/>
+          <a:ext cx="1210588" cy="268407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>去往“电视塔旧址”中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>632135</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>102638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66195</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="图片 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8175935" y="6389138"/>
+          <a:ext cx="119860" cy="159449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>564428</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="761747" cy="290336"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="文本框 63"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8794028" y="10713326"/>
+          <a:ext cx="761747" cy="290336"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:glow rad="495300">
+            <a:schemeClr val="accent2">
+              <a:satMod val="175000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="419100">
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="31000"/>
+                  </a:srgbClr>
+                </a:glow>
+              </a:effectLst>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>电视塔旧址</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>324152</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>105102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>82366</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>27189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="图片 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496352" y="11211252"/>
+          <a:ext cx="444014" cy="436437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>315311</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>203698</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="457301" cy="132139"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="文本框 65"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6487511" y="11519398"/>
+          <a:ext cx="457301" cy="132139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>庄园</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>591206</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>151086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25266</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>141359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="图片 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8820806" y="8952186"/>
+          <a:ext cx="119860" cy="161723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>663466</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>144518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>282466</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>94084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="图片 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7521466" y="7478768"/>
+          <a:ext cx="304800" cy="292466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>183931</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>321880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4741</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="椭圆 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7727731" y="7419647"/>
+          <a:ext cx="137949" cy="128894"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>302172</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72259</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="518948" cy="175846"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="文本框 69"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9903372" y="11597509"/>
+          <a:ext cx="518948" cy="175846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="700" b="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>900/1000</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="700" b="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>73270</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="212481" cy="154119"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="文本框 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429499" y="9922120"/>
+          <a:ext cx="212481" cy="154119"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" lIns="0" rIns="0" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>回家</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>674077</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>225336</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>109418</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="图片 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:grayscl/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7532077" y="10940561"/>
+          <a:ext cx="237059" cy="236907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>649707</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="图片 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="2124075"/>
+          <a:ext cx="573507" cy="1190462"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>201587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="3230537"/>
+          <a:ext cx="542925" cy="798419"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>92795</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619045</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142759</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="778595" y="3248024"/>
+          <a:ext cx="526250" cy="761885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504464</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085976" y="3219450"/>
+          <a:ext cx="475888" cy="790458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>429899</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="3219450"/>
+          <a:ext cx="487049" cy="790457"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="圆角矩形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686050" y="3219449"/>
+          <a:ext cx="495300" cy="781051"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+            <a:alpha val="72157"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" lIns="0" rIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>外出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2666999" cy="7499107"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="822082" y="4106738"/>
+          <a:ext cx="2666999" cy="7499107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>僵尸入侵</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>大门机枪打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>余博文打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>易君健打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>邵谊鲲打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>僵尸开始攻击大门和围墙</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>大门机枪打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>余博文打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>易君健打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>邵谊鲲打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>大门被攻破</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>僵尸开始疯狂破坏</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>余博文打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>易君健打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>邵谊鲲打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>易君健被僵尸重创 受伤，失去战斗能力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>大门机枪打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>余博文打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>邵谊鲲打死了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只僵尸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最后一只僵尸被余博文击杀</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>战斗结束</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>战斗结果：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>* 大门损坏</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>* 易君健受伤</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>* 个人资源损失：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>345000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>* 个人黄金损失：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>20000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>* 个人血量损失：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>80</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t> 战利品：金表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>x1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>身份证</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>x10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>                </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" baseline="0">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>庄园图纸</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>x1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165587</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>75118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="图片 76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257550" y="2762250"/>
+          <a:ext cx="337037" cy="341818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="495300" cy="334451"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="文本框 77"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905001" y="2809875"/>
+          <a:ext cx="495300" cy="334451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>战报</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>543075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>578828</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>197309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8119113" y="0"/>
+          <a:ext cx="3479407" cy="2556578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>630116</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>51289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>668216</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>156064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="图片 79" descr="https://imgsa.baidu.com/forum/w%3D580/sign=56fe62dfe6fe9925cb0c695804a95ee4/78b6b0c27d1ed21b622354ffab6eddc450da3fe0.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17159654" y="13122520"/>
+          <a:ext cx="5547946" cy="2632563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,7 +4748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -1195,13 +5216,1607 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B7:AJ126"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+    </row>
+    <row r="16" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+    </row>
+    <row r="17" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+    </row>
+    <row r="18" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+    </row>
+    <row r="19" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+    </row>
+    <row r="20" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+    </row>
+    <row r="21" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+    </row>
+    <row r="22" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+    </row>
+    <row r="23" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+    </row>
+    <row r="24" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+    </row>
+    <row r="25" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+    </row>
+    <row r="26" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+    </row>
+    <row r="27" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+    </row>
+    <row r="28" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+    </row>
+    <row r="29" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+    </row>
+    <row r="30" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+    </row>
+    <row r="31" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+    </row>
+    <row r="32" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+    </row>
+    <row r="33" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+    </row>
+    <row r="34" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+    </row>
+    <row r="35" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+    </row>
+    <row r="36" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+    </row>
+    <row r="37" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+    </row>
+    <row r="38" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+    </row>
+    <row r="39" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+    </row>
+    <row r="40" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
+    </row>
+    <row r="41" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+    </row>
+    <row r="42" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
+    </row>
+    <row r="43" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Z70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Z87">
+        <v>500</v>
+      </c>
+      <c r="AA87">
+        <v>1000</v>
+      </c>
+      <c r="AB87">
+        <v>1500</v>
+      </c>
+      <c r="AC87">
+        <v>2500</v>
+      </c>
+      <c r="AD87">
+        <v>10000</v>
+      </c>
+      <c r="AE87">
+        <v>20000</v>
+      </c>
+      <c r="AF87">
+        <v>30000</v>
+      </c>
+      <c r="AG87">
+        <v>50000</v>
+      </c>
+      <c r="AH87">
+        <v>75000</v>
+      </c>
+      <c r="AI87">
+        <v>100000</v>
+      </c>
+      <c r="AJ87">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Z88">
+        <v>1500</v>
+      </c>
+      <c r="AA88">
+        <v>3000</v>
+      </c>
+      <c r="AB88">
+        <v>6000</v>
+      </c>
+      <c r="AC88">
+        <v>12000</v>
+      </c>
+      <c r="AD88">
+        <v>25000</v>
+      </c>
+      <c r="AE88">
+        <v>50000</v>
+      </c>
+      <c r="AF88">
+        <v>100000</v>
+      </c>
+      <c r="AG88">
+        <v>250000</v>
+      </c>
+      <c r="AH88">
+        <v>500000</v>
+      </c>
+      <c r="AI88">
+        <v>1000000</v>
+      </c>
+      <c r="AJ88">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AJ89">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="B92" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="31"/>
+      <c r="D92" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F92" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G92" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I92" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="J92" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K92" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L92" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M92" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N92" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="O92" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="P92" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q92" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="R92" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="S92" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="T92" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="U92" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="V92" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="W92" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="B93" s="35">
+        <v>1</v>
+      </c>
+      <c r="C93" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="E93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="F93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="G93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="H93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="I93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="J93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="K93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="L93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="M93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="N93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="O93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="P93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="Q93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="R93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="S93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="T93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="U93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="V93" s="33">
+        <v>0.5</v>
+      </c>
+      <c r="W93" s="33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="B94" s="35">
+        <v>2</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E94" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F94" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="G94" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="H94" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="I94" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="J94" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="K94" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="L94" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="M94" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="N94" s="33">
+        <v>0.19</v>
+      </c>
+      <c r="O94" s="33">
+        <v>0.18</v>
+      </c>
+      <c r="P94" s="33">
+        <v>0.17</v>
+      </c>
+      <c r="Q94" s="33">
+        <v>0.16</v>
+      </c>
+      <c r="R94" s="33">
+        <v>0.15</v>
+      </c>
+      <c r="S94" s="33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T94" s="33">
+        <v>0.13</v>
+      </c>
+      <c r="U94" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="V94" s="33">
+        <v>0.11</v>
+      </c>
+      <c r="W94" s="33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="B95" s="32"/>
+      <c r="C95" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="34">
+        <v>620</v>
+      </c>
+      <c r="G95" s="34">
+        <v>720</v>
+      </c>
+      <c r="H95" s="34">
+        <v>2200</v>
+      </c>
+      <c r="I95" s="34">
+        <v>3200</v>
+      </c>
+      <c r="J95" s="34">
+        <v>4000</v>
+      </c>
+      <c r="K95" s="34">
+        <v>4600</v>
+      </c>
+      <c r="L95" s="34">
+        <v>5000</v>
+      </c>
+      <c r="M95" s="34">
+        <v>5100</v>
+      </c>
+      <c r="N95" s="34">
+        <v>7000</v>
+      </c>
+      <c r="O95" s="34">
+        <v>6200</v>
+      </c>
+      <c r="P95" s="34">
+        <v>7700</v>
+      </c>
+      <c r="Q95" s="34">
+        <v>8700</v>
+      </c>
+      <c r="R95" s="34">
+        <v>11000</v>
+      </c>
+      <c r="S95" s="34">
+        <v>11000</v>
+      </c>
+      <c r="T95" s="34">
+        <v>13000</v>
+      </c>
+      <c r="U95" s="34">
+        <v>15000</v>
+      </c>
+      <c r="V95" s="34">
+        <v>15000</v>
+      </c>
+      <c r="W95" s="34">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="96" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="B96" s="32"/>
+      <c r="C96" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="34">
+        <f>F95/F94</f>
+        <v>3100</v>
+      </c>
+      <c r="G96" s="34">
+        <f t="shared" ref="G96:W96" si="0">G95/G94</f>
+        <v>3600</v>
+      </c>
+      <c r="H96" s="34">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="I96" s="34">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="J96" s="34">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="K96" s="34">
+        <f t="shared" si="0"/>
+        <v>23000</v>
+      </c>
+      <c r="L96" s="34">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="M96" s="34">
+        <f t="shared" si="0"/>
+        <v>25500</v>
+      </c>
+      <c r="N96" s="34">
+        <f t="shared" si="0"/>
+        <v>36842.105263157893</v>
+      </c>
+      <c r="O96" s="34">
+        <f t="shared" si="0"/>
+        <v>34444.444444444445</v>
+      </c>
+      <c r="P96" s="34">
+        <f t="shared" si="0"/>
+        <v>45294.117647058818</v>
+      </c>
+      <c r="Q96" s="34">
+        <f t="shared" si="0"/>
+        <v>54375</v>
+      </c>
+      <c r="R96" s="34">
+        <f t="shared" si="0"/>
+        <v>73333.333333333343</v>
+      </c>
+      <c r="S96" s="34">
+        <f t="shared" si="0"/>
+        <v>78571.428571428565</v>
+      </c>
+      <c r="T96" s="34">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="U96" s="34">
+        <f t="shared" si="0"/>
+        <v>125000</v>
+      </c>
+      <c r="V96" s="34">
+        <f t="shared" si="0"/>
+        <v>136363.63636363635</v>
+      </c>
+      <c r="W96" s="34">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B97" s="35">
+        <v>3</v>
+      </c>
+      <c r="C97" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="E97" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="F97" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="G97" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="H97" s="33">
+        <v>0.19</v>
+      </c>
+      <c r="I97" s="33">
+        <v>0.18</v>
+      </c>
+      <c r="J97" s="33">
+        <v>0.16</v>
+      </c>
+      <c r="K97" s="33">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L97" s="33">
+        <v>0.12</v>
+      </c>
+      <c r="M97" s="33">
+        <v>0.1</v>
+      </c>
+      <c r="N97" s="33">
+        <v>0.09</v>
+      </c>
+      <c r="O97" s="33">
+        <v>0.08</v>
+      </c>
+      <c r="P97" s="33">
+        <v>0.08</v>
+      </c>
+      <c r="Q97" s="33">
+        <v>0.08</v>
+      </c>
+      <c r="R97" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="S97" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T97" s="33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U97" s="33">
+        <v>0.06</v>
+      </c>
+      <c r="V97" s="33">
+        <v>0.06</v>
+      </c>
+      <c r="W97" s="33">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B98" s="35"/>
+      <c r="C98" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="34">
+        <v>62000</v>
+      </c>
+      <c r="G98" s="34">
+        <v>72000</v>
+      </c>
+      <c r="H98" s="34">
+        <v>220000</v>
+      </c>
+      <c r="I98" s="34">
+        <v>320000</v>
+      </c>
+      <c r="J98" s="34">
+        <v>400000</v>
+      </c>
+      <c r="K98" s="34">
+        <v>460000</v>
+      </c>
+      <c r="L98" s="34">
+        <v>500000</v>
+      </c>
+      <c r="M98" s="34">
+        <v>510000</v>
+      </c>
+      <c r="N98" s="34">
+        <v>700000</v>
+      </c>
+      <c r="O98" s="34">
+        <v>620000</v>
+      </c>
+      <c r="P98" s="34">
+        <v>770000</v>
+      </c>
+      <c r="Q98" s="34">
+        <v>870000</v>
+      </c>
+      <c r="R98" s="34">
+        <v>1100000</v>
+      </c>
+      <c r="S98" s="34">
+        <v>1100000</v>
+      </c>
+      <c r="T98" s="34">
+        <v>1300000</v>
+      </c>
+      <c r="U98" s="34">
+        <v>1500000</v>
+      </c>
+      <c r="V98" s="34">
+        <v>1500000</v>
+      </c>
+      <c r="W98" s="34">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B99" s="32"/>
+      <c r="C99" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="34">
+        <f>F98/F97</f>
+        <v>310000</v>
+      </c>
+      <c r="G99" s="34">
+        <f t="shared" ref="G99:W99" si="1">G98/G97</f>
+        <v>360000</v>
+      </c>
+      <c r="H99" s="34">
+        <f t="shared" si="1"/>
+        <v>1157894.7368421052</v>
+      </c>
+      <c r="I99" s="34">
+        <f t="shared" si="1"/>
+        <v>1777777.7777777778</v>
+      </c>
+      <c r="J99" s="34">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="K99" s="34">
+        <f t="shared" si="1"/>
+        <v>3285714.2857142854</v>
+      </c>
+      <c r="L99" s="34">
+        <f t="shared" si="1"/>
+        <v>4166666.666666667</v>
+      </c>
+      <c r="M99" s="34">
+        <f t="shared" si="1"/>
+        <v>5100000</v>
+      </c>
+      <c r="N99" s="34">
+        <f t="shared" si="1"/>
+        <v>7777777.777777778</v>
+      </c>
+      <c r="O99" s="34">
+        <f t="shared" si="1"/>
+        <v>7750000</v>
+      </c>
+      <c r="P99" s="34">
+        <f t="shared" si="1"/>
+        <v>9625000</v>
+      </c>
+      <c r="Q99" s="34">
+        <f t="shared" si="1"/>
+        <v>10875000</v>
+      </c>
+      <c r="R99" s="34">
+        <f t="shared" si="1"/>
+        <v>15714285.714285713</v>
+      </c>
+      <c r="S99" s="34">
+        <f t="shared" si="1"/>
+        <v>15714285.714285713</v>
+      </c>
+      <c r="T99" s="34">
+        <f t="shared" si="1"/>
+        <v>18571428.571428571</v>
+      </c>
+      <c r="U99" s="34">
+        <f t="shared" si="1"/>
+        <v>25000000</v>
+      </c>
+      <c r="V99" s="34">
+        <f t="shared" si="1"/>
+        <v>25000000</v>
+      </c>
+      <c r="W99" s="34">
+        <f t="shared" si="1"/>
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C100" s="30"/>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D109">
+        <v>2400</v>
+      </c>
+      <c r="E109">
+        <v>2400</v>
+      </c>
+      <c r="F109">
+        <v>2600</v>
+      </c>
+      <c r="G109">
+        <v>4</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <f>26*D109/H109</f>
+        <v>62400</v>
+      </c>
+      <c r="J109">
+        <f>IF(I109&lt;100,ROUND(I109,1-LEN(ROUND(I109,0))),ROUND(I109,2-LEN(ROUND(I109,0))))</f>
+        <v>62000</v>
+      </c>
+      <c r="K109">
+        <v>62000</v>
+      </c>
+      <c r="L109">
+        <f>J109/100</f>
+        <v>620</v>
+      </c>
+      <c r="M109">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="110" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D110">
+        <v>36000</v>
+      </c>
+      <c r="E110">
+        <v>36000</v>
+      </c>
+      <c r="F110">
+        <v>38600</v>
+      </c>
+      <c r="G110">
+        <v>12</v>
+      </c>
+      <c r="H110">
+        <v>13</v>
+      </c>
+      <c r="I110">
+        <f t="shared" ref="I110:I126" si="2">26*D110/H110</f>
+        <v>72000</v>
+      </c>
+      <c r="J110">
+        <f t="shared" ref="J110:J126" si="3">IF(I110&lt;100,ROUND(I110,1-LEN(ROUND(I110,0))),ROUND(I110,2-LEN(ROUND(I110,0))))</f>
+        <v>72000</v>
+      </c>
+      <c r="K110">
+        <v>72000</v>
+      </c>
+      <c r="L110">
+        <f t="shared" ref="L110:L126" si="4">J110/100</f>
+        <v>720</v>
+      </c>
+      <c r="M110">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="111" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D111">
+        <v>380000</v>
+      </c>
+      <c r="E111">
+        <v>384000</v>
+      </c>
+      <c r="F111">
+        <v>418600</v>
+      </c>
+      <c r="G111">
+        <v>32</v>
+      </c>
+      <c r="H111">
+        <v>45</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="2"/>
+        <v>219555.55555555556</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="3"/>
+        <v>220000</v>
+      </c>
+      <c r="K111">
+        <v>220000</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="M111">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="112" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D112">
+        <v>1200000</v>
+      </c>
+      <c r="E112">
+        <v>1248000</v>
+      </c>
+      <c r="F112">
+        <v>1618600</v>
+      </c>
+      <c r="G112">
+        <v>52</v>
+      </c>
+      <c r="H112">
+        <v>97</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="2"/>
+        <v>321649.48453608248</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="3"/>
+        <v>320000</v>
+      </c>
+      <c r="K112">
+        <v>320000</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+      <c r="M112">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="113" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D113">
+        <v>2700000</v>
+      </c>
+      <c r="E113">
+        <v>2688000</v>
+      </c>
+      <c r="F113">
+        <v>4318600</v>
+      </c>
+      <c r="G113">
+        <v>80</v>
+      </c>
+      <c r="H113">
+        <v>177</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="2"/>
+        <v>396610.16949152545</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="3"/>
+        <v>400000</v>
+      </c>
+      <c r="K113">
+        <v>400000</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
+      <c r="M113">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="114" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D114">
+        <v>5000000</v>
+      </c>
+      <c r="E114">
+        <v>4986240</v>
+      </c>
+      <c r="F114">
+        <v>9318600</v>
+      </c>
+      <c r="G114">
+        <v>106</v>
+      </c>
+      <c r="H114">
+        <v>283</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="2"/>
+        <v>459363.95759717317</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="3"/>
+        <v>460000</v>
+      </c>
+      <c r="K114">
+        <v>460000</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="4"/>
+        <v>4600</v>
+      </c>
+      <c r="M114">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="115" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D115">
+        <v>7900000</v>
+      </c>
+      <c r="E115">
+        <v>7949760</v>
+      </c>
+      <c r="F115">
+        <v>17218600</v>
+      </c>
+      <c r="G115">
+        <v>130</v>
+      </c>
+      <c r="H115">
+        <v>413</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="2"/>
+        <v>497336.56174334139</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="3"/>
+        <v>500000</v>
+      </c>
+      <c r="K115">
+        <v>500000</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="M115">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="116" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D116">
+        <v>11000000</v>
+      </c>
+      <c r="E116">
+        <v>11154124.799999999</v>
+      </c>
+      <c r="F116">
+        <v>28218600</v>
+      </c>
+      <c r="G116">
+        <v>152</v>
+      </c>
+      <c r="H116">
+        <v>565</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="2"/>
+        <v>506194.69026548672</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="3"/>
+        <v>510000</v>
+      </c>
+      <c r="K116">
+        <v>510000</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="4"/>
+        <v>5100</v>
+      </c>
+      <c r="M116">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="117" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D117">
+        <v>22000000</v>
+      </c>
+      <c r="E117">
+        <v>22190837.759999998</v>
+      </c>
+      <c r="F117">
+        <v>50218600</v>
+      </c>
+      <c r="G117">
+        <v>252</v>
+      </c>
+      <c r="H117">
+        <v>817</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="2"/>
+        <v>700122.39902080782</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="3"/>
+        <v>700000</v>
+      </c>
+      <c r="K117">
+        <v>700000</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="4"/>
+        <v>7000</v>
+      </c>
+      <c r="M117">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="118" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D118">
+        <v>26000000</v>
+      </c>
+      <c r="E118">
+        <v>25915728.384</v>
+      </c>
+      <c r="F118">
+        <v>76218600</v>
+      </c>
+      <c r="G118">
+        <v>270</v>
+      </c>
+      <c r="H118">
+        <v>1087</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="2"/>
+        <v>621895.12419503217</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="3"/>
+        <v>620000</v>
+      </c>
+      <c r="K118">
+        <v>620000</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="4"/>
+        <v>6200</v>
+      </c>
+      <c r="M118">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="119" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D119">
+        <v>43000000</v>
+      </c>
+      <c r="E119">
+        <v>42616975.564800002</v>
+      </c>
+      <c r="F119">
+        <v>119218600</v>
+      </c>
+      <c r="G119">
+        <v>370</v>
+      </c>
+      <c r="H119">
+        <v>1457</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="2"/>
+        <v>767330.13040494162</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="3"/>
+        <v>770000</v>
+      </c>
+      <c r="K119">
+        <v>770000</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="4"/>
+        <v>7700</v>
+      </c>
+      <c r="M119">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="120" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D120">
+        <v>66000000</v>
+      </c>
+      <c r="E120">
+        <v>65883540.602880001</v>
+      </c>
+      <c r="F120">
+        <v>185218600</v>
+      </c>
+      <c r="G120">
+        <v>520</v>
+      </c>
+      <c r="H120">
+        <v>1977</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="2"/>
+        <v>867981.79059180582</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="3"/>
+        <v>870000</v>
+      </c>
+      <c r="K120">
+        <v>870000</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="4"/>
+        <v>8700</v>
+      </c>
+      <c r="M120">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="121" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D121">
+        <v>110000000</v>
+      </c>
+      <c r="E121">
+        <v>109468036.69401599</v>
+      </c>
+      <c r="F121">
+        <v>295218600</v>
+      </c>
+      <c r="G121">
+        <v>720</v>
+      </c>
+      <c r="H121">
+        <v>2697</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="2"/>
+        <v>1060437.5231738968</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="3"/>
+        <v>1100000</v>
+      </c>
+      <c r="K121">
+        <v>1100000</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="4"/>
+        <v>11000</v>
+      </c>
+      <c r="M121">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="122" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D122">
+        <v>150000000</v>
+      </c>
+      <c r="E122">
+        <v>150792220.54600701</v>
+      </c>
+      <c r="F122">
+        <v>445218600</v>
+      </c>
+      <c r="G122">
+        <v>870</v>
+      </c>
+      <c r="H122">
+        <v>3567</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="2"/>
+        <v>1093355.7611438183</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="3"/>
+        <v>1100000</v>
+      </c>
+      <c r="K122">
+        <v>1100000</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="4"/>
+        <v>11000</v>
+      </c>
+      <c r="M122">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="123" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D123">
+        <v>230000000</v>
+      </c>
+      <c r="E123">
+        <v>233207968.67201427</v>
+      </c>
+      <c r="F123">
+        <v>675218600</v>
+      </c>
+      <c r="G123">
+        <v>1170</v>
+      </c>
+      <c r="H123">
+        <v>4737</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="2"/>
+        <v>1262402.3643656322</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="3"/>
+        <v>1300000</v>
+      </c>
+      <c r="K123">
+        <v>1300000</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="4"/>
+        <v>13000</v>
+      </c>
+      <c r="M123">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="124" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D124">
+        <v>350000000</v>
+      </c>
+      <c r="E124">
+        <v>348416691.65699226</v>
+      </c>
+      <c r="F124">
+        <v>1025218600</v>
+      </c>
+      <c r="G124">
+        <v>1520</v>
+      </c>
+      <c r="H124">
+        <v>6257</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="2"/>
+        <v>1454371.1043631134</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="3"/>
+        <v>1500000</v>
+      </c>
+      <c r="K124">
+        <v>1500000</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="M124">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="125" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D125">
+        <v>480000000</v>
+      </c>
+      <c r="E125">
+        <v>484115824.19708401</v>
+      </c>
+      <c r="F125">
+        <v>1505218600</v>
+      </c>
+      <c r="G125">
+        <v>1920</v>
+      </c>
+      <c r="H125">
+        <v>8177</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="2"/>
+        <v>1526232.1144674085</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="3"/>
+        <v>1500000</v>
+      </c>
+      <c r="K125">
+        <v>1500000</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="M125">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="126" spans="4:13" x14ac:dyDescent="0.15">
+      <c r="D126">
+        <v>760000000</v>
+      </c>
+      <c r="E126">
+        <v>762482423.11040723</v>
+      </c>
+      <c r="F126">
+        <v>2265218600</v>
+      </c>
+      <c r="G126">
+        <v>2520</v>
+      </c>
+      <c r="H126">
+        <v>10697</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="2"/>
+        <v>1847246.8916518651</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="3"/>
+        <v>1800000</v>
+      </c>
+      <c r="K126">
+        <v>1800000</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="M126">
+        <v>18000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B92:C92"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/算法.xlsx
+++ b/document/算法.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人及庄园算法" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
   <si>
     <t>初始</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -390,6 +389,10 @@
   </si>
   <si>
     <t>上限对应资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见core表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -689,9 +692,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,6 +699,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5218,8 +5221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AJ126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93:C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5624,556 +5627,561 @@
         <v>6000000</v>
       </c>
     </row>
+    <row r="90" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>96</v>
+      </c>
+    </row>
     <row r="92" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="32" t="s">
+      <c r="C92" s="35"/>
+      <c r="D92" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E92" s="32" t="s">
+      <c r="E92" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F92" s="32" t="s">
+      <c r="F92" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="32" t="s">
+      <c r="G92" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H92" s="32" t="s">
+      <c r="H92" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I92" s="32" t="s">
+      <c r="I92" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="J92" s="32" t="s">
+      <c r="J92" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="K92" s="32" t="s">
+      <c r="K92" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="L92" s="32" t="s">
+      <c r="L92" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="M92" s="32" t="s">
+      <c r="M92" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="N92" s="32" t="s">
+      <c r="N92" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="O92" s="32" t="s">
+      <c r="O92" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="P92" s="32" t="s">
+      <c r="P92" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="Q92" s="32" t="s">
+      <c r="Q92" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="R92" s="32" t="s">
+      <c r="R92" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="S92" s="32" t="s">
+      <c r="S92" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="T92" s="32" t="s">
+      <c r="T92" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="U92" s="32" t="s">
+      <c r="U92" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="V92" s="32" t="s">
+      <c r="V92" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="W92" s="32" t="s">
+      <c r="W92" s="31" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="93" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="B93" s="35">
+      <c r="B93" s="34">
         <v>1</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D93" s="33">
+      <c r="D93" s="32">
         <v>0.5</v>
       </c>
-      <c r="E93" s="33">
+      <c r="E93" s="32">
         <v>0.5</v>
       </c>
-      <c r="F93" s="33">
+      <c r="F93" s="32">
         <v>0.5</v>
       </c>
-      <c r="G93" s="33">
+      <c r="G93" s="32">
         <v>0.5</v>
       </c>
-      <c r="H93" s="33">
+      <c r="H93" s="32">
         <v>0.5</v>
       </c>
-      <c r="I93" s="33">
+      <c r="I93" s="32">
         <v>0.5</v>
       </c>
-      <c r="J93" s="33">
+      <c r="J93" s="32">
         <v>0.5</v>
       </c>
-      <c r="K93" s="33">
+      <c r="K93" s="32">
         <v>0.5</v>
       </c>
-      <c r="L93" s="33">
+      <c r="L93" s="32">
         <v>0.5</v>
       </c>
-      <c r="M93" s="33">
+      <c r="M93" s="32">
         <v>0.5</v>
       </c>
-      <c r="N93" s="33">
+      <c r="N93" s="32">
         <v>0.5</v>
       </c>
-      <c r="O93" s="33">
+      <c r="O93" s="32">
         <v>0.5</v>
       </c>
-      <c r="P93" s="33">
+      <c r="P93" s="32">
         <v>0.5</v>
       </c>
-      <c r="Q93" s="33">
+      <c r="Q93" s="32">
         <v>0.5</v>
       </c>
-      <c r="R93" s="33">
+      <c r="R93" s="32">
         <v>0.5</v>
       </c>
-      <c r="S93" s="33">
+      <c r="S93" s="32">
         <v>0.5</v>
       </c>
-      <c r="T93" s="33">
+      <c r="T93" s="32">
         <v>0.5</v>
       </c>
-      <c r="U93" s="33">
+      <c r="U93" s="32">
         <v>0.5</v>
       </c>
-      <c r="V93" s="33">
+      <c r="V93" s="32">
         <v>0.5</v>
       </c>
-      <c r="W93" s="33">
+      <c r="W93" s="32">
         <v>0.5</v>
       </c>
     </row>
     <row r="94" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="B94" s="35">
+      <c r="B94" s="34">
         <v>2</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D94" s="33">
+      <c r="D94" s="32">
         <v>0.2</v>
       </c>
-      <c r="E94" s="33">
+      <c r="E94" s="32">
         <v>0.2</v>
       </c>
-      <c r="F94" s="33">
+      <c r="F94" s="32">
         <v>0.2</v>
       </c>
-      <c r="G94" s="33">
+      <c r="G94" s="32">
         <v>0.2</v>
       </c>
-      <c r="H94" s="33">
+      <c r="H94" s="32">
         <v>0.2</v>
       </c>
-      <c r="I94" s="33">
+      <c r="I94" s="32">
         <v>0.2</v>
       </c>
-      <c r="J94" s="33">
+      <c r="J94" s="32">
         <v>0.2</v>
       </c>
-      <c r="K94" s="33">
+      <c r="K94" s="32">
         <v>0.2</v>
       </c>
-      <c r="L94" s="33">
+      <c r="L94" s="32">
         <v>0.2</v>
       </c>
-      <c r="M94" s="33">
+      <c r="M94" s="32">
         <v>0.2</v>
       </c>
-      <c r="N94" s="33">
+      <c r="N94" s="32">
         <v>0.19</v>
       </c>
-      <c r="O94" s="33">
+      <c r="O94" s="32">
         <v>0.18</v>
       </c>
-      <c r="P94" s="33">
+      <c r="P94" s="32">
         <v>0.17</v>
       </c>
-      <c r="Q94" s="33">
+      <c r="Q94" s="32">
         <v>0.16</v>
       </c>
-      <c r="R94" s="33">
+      <c r="R94" s="32">
         <v>0.15</v>
       </c>
-      <c r="S94" s="33">
+      <c r="S94" s="32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="T94" s="33">
+      <c r="T94" s="32">
         <v>0.13</v>
       </c>
-      <c r="U94" s="33">
+      <c r="U94" s="32">
         <v>0.12</v>
       </c>
-      <c r="V94" s="33">
+      <c r="V94" s="32">
         <v>0.11</v>
       </c>
-      <c r="W94" s="33">
+      <c r="W94" s="32">
         <v>0.1</v>
       </c>
     </row>
     <row r="95" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="B95" s="32"/>
-      <c r="C95" s="35" t="s">
+      <c r="B95" s="31"/>
+      <c r="C95" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="34">
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="33">
         <v>620</v>
       </c>
-      <c r="G95" s="34">
+      <c r="G95" s="33">
         <v>720</v>
       </c>
-      <c r="H95" s="34">
+      <c r="H95" s="33">
         <v>2200</v>
       </c>
-      <c r="I95" s="34">
+      <c r="I95" s="33">
         <v>3200</v>
       </c>
-      <c r="J95" s="34">
+      <c r="J95" s="33">
         <v>4000</v>
       </c>
-      <c r="K95" s="34">
+      <c r="K95" s="33">
         <v>4600</v>
       </c>
-      <c r="L95" s="34">
+      <c r="L95" s="33">
         <v>5000</v>
       </c>
-      <c r="M95" s="34">
+      <c r="M95" s="33">
         <v>5100</v>
       </c>
-      <c r="N95" s="34">
+      <c r="N95" s="33">
         <v>7000</v>
       </c>
-      <c r="O95" s="34">
+      <c r="O95" s="33">
         <v>6200</v>
       </c>
-      <c r="P95" s="34">
+      <c r="P95" s="33">
         <v>7700</v>
       </c>
-      <c r="Q95" s="34">
+      <c r="Q95" s="33">
         <v>8700</v>
       </c>
-      <c r="R95" s="34">
+      <c r="R95" s="33">
         <v>11000</v>
       </c>
-      <c r="S95" s="34">
+      <c r="S95" s="33">
         <v>11000</v>
       </c>
-      <c r="T95" s="34">
+      <c r="T95" s="33">
         <v>13000</v>
       </c>
-      <c r="U95" s="34">
+      <c r="U95" s="33">
         <v>15000</v>
       </c>
-      <c r="V95" s="34">
+      <c r="V95" s="33">
         <v>15000</v>
       </c>
-      <c r="W95" s="34">
+      <c r="W95" s="33">
         <v>18000</v>
       </c>
     </row>
     <row r="96" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="B96" s="32"/>
-      <c r="C96" s="32" t="s">
+      <c r="B96" s="31"/>
+      <c r="C96" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="34">
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="33">
         <f>F95/F94</f>
         <v>3100</v>
       </c>
-      <c r="G96" s="34">
+      <c r="G96" s="33">
         <f t="shared" ref="G96:W96" si="0">G95/G94</f>
         <v>3600</v>
       </c>
-      <c r="H96" s="34">
+      <c r="H96" s="33">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="I96" s="34">
+      <c r="I96" s="33">
         <f t="shared" si="0"/>
         <v>16000</v>
       </c>
-      <c r="J96" s="34">
+      <c r="J96" s="33">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="K96" s="34">
+      <c r="K96" s="33">
         <f t="shared" si="0"/>
         <v>23000</v>
       </c>
-      <c r="L96" s="34">
+      <c r="L96" s="33">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="M96" s="34">
+      <c r="M96" s="33">
         <f t="shared" si="0"/>
         <v>25500</v>
       </c>
-      <c r="N96" s="34">
+      <c r="N96" s="33">
         <f t="shared" si="0"/>
         <v>36842.105263157893</v>
       </c>
-      <c r="O96" s="34">
+      <c r="O96" s="33">
         <f t="shared" si="0"/>
         <v>34444.444444444445</v>
       </c>
-      <c r="P96" s="34">
+      <c r="P96" s="33">
         <f t="shared" si="0"/>
         <v>45294.117647058818</v>
       </c>
-      <c r="Q96" s="34">
+      <c r="Q96" s="33">
         <f t="shared" si="0"/>
         <v>54375</v>
       </c>
-      <c r="R96" s="34">
+      <c r="R96" s="33">
         <f t="shared" si="0"/>
         <v>73333.333333333343</v>
       </c>
-      <c r="S96" s="34">
+      <c r="S96" s="33">
         <f t="shared" si="0"/>
         <v>78571.428571428565</v>
       </c>
-      <c r="T96" s="34">
+      <c r="T96" s="33">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="U96" s="34">
+      <c r="U96" s="33">
         <f t="shared" si="0"/>
         <v>125000</v>
       </c>
-      <c r="V96" s="34">
+      <c r="V96" s="33">
         <f t="shared" si="0"/>
         <v>136363.63636363635</v>
       </c>
-      <c r="W96" s="34">
+      <c r="W96" s="33">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B97" s="35">
+      <c r="B97" s="34">
         <v>3</v>
       </c>
-      <c r="C97" s="35" t="s">
+      <c r="C97" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D97" s="33">
+      <c r="D97" s="32">
         <v>0.2</v>
       </c>
-      <c r="E97" s="33">
+      <c r="E97" s="32">
         <v>0.2</v>
       </c>
-      <c r="F97" s="33">
+      <c r="F97" s="32">
         <v>0.2</v>
       </c>
-      <c r="G97" s="33">
+      <c r="G97" s="32">
         <v>0.2</v>
       </c>
-      <c r="H97" s="33">
+      <c r="H97" s="32">
         <v>0.19</v>
       </c>
-      <c r="I97" s="33">
+      <c r="I97" s="32">
         <v>0.18</v>
       </c>
-      <c r="J97" s="33">
+      <c r="J97" s="32">
         <v>0.16</v>
       </c>
-      <c r="K97" s="33">
+      <c r="K97" s="32">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L97" s="33">
+      <c r="L97" s="32">
         <v>0.12</v>
       </c>
-      <c r="M97" s="33">
+      <c r="M97" s="32">
         <v>0.1</v>
       </c>
-      <c r="N97" s="33">
+      <c r="N97" s="32">
         <v>0.09</v>
       </c>
-      <c r="O97" s="33">
+      <c r="O97" s="32">
         <v>0.08</v>
       </c>
-      <c r="P97" s="33">
+      <c r="P97" s="32">
         <v>0.08</v>
       </c>
-      <c r="Q97" s="33">
+      <c r="Q97" s="32">
         <v>0.08</v>
       </c>
-      <c r="R97" s="33">
+      <c r="R97" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S97" s="33">
+      <c r="S97" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T97" s="33">
+      <c r="T97" s="32">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="U97" s="33">
+      <c r="U97" s="32">
         <v>0.06</v>
       </c>
-      <c r="V97" s="33">
+      <c r="V97" s="32">
         <v>0.06</v>
       </c>
-      <c r="W97" s="33">
+      <c r="W97" s="32">
         <v>0.05</v>
       </c>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B98" s="35"/>
-      <c r="C98" s="35" t="s">
+      <c r="B98" s="34"/>
+      <c r="C98" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="34">
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="33">
         <v>62000</v>
       </c>
-      <c r="G98" s="34">
+      <c r="G98" s="33">
         <v>72000</v>
       </c>
-      <c r="H98" s="34">
+      <c r="H98" s="33">
         <v>220000</v>
       </c>
-      <c r="I98" s="34">
+      <c r="I98" s="33">
         <v>320000</v>
       </c>
-      <c r="J98" s="34">
+      <c r="J98" s="33">
         <v>400000</v>
       </c>
-      <c r="K98" s="34">
+      <c r="K98" s="33">
         <v>460000</v>
       </c>
-      <c r="L98" s="34">
+      <c r="L98" s="33">
         <v>500000</v>
       </c>
-      <c r="M98" s="34">
+      <c r="M98" s="33">
         <v>510000</v>
       </c>
-      <c r="N98" s="34">
+      <c r="N98" s="33">
         <v>700000</v>
       </c>
-      <c r="O98" s="34">
+      <c r="O98" s="33">
         <v>620000</v>
       </c>
-      <c r="P98" s="34">
+      <c r="P98" s="33">
         <v>770000</v>
       </c>
-      <c r="Q98" s="34">
+      <c r="Q98" s="33">
         <v>870000</v>
       </c>
-      <c r="R98" s="34">
+      <c r="R98" s="33">
         <v>1100000</v>
       </c>
-      <c r="S98" s="34">
+      <c r="S98" s="33">
         <v>1100000</v>
       </c>
-      <c r="T98" s="34">
+      <c r="T98" s="33">
         <v>1300000</v>
       </c>
-      <c r="U98" s="34">
+      <c r="U98" s="33">
         <v>1500000</v>
       </c>
-      <c r="V98" s="34">
+      <c r="V98" s="33">
         <v>1500000</v>
       </c>
-      <c r="W98" s="34">
+      <c r="W98" s="33">
         <v>1800000</v>
       </c>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B99" s="32"/>
-      <c r="C99" s="32" t="s">
+      <c r="B99" s="31"/>
+      <c r="C99" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="34">
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="33">
         <f>F98/F97</f>
         <v>310000</v>
       </c>
-      <c r="G99" s="34">
+      <c r="G99" s="33">
         <f t="shared" ref="G99:W99" si="1">G98/G97</f>
         <v>360000</v>
       </c>
-      <c r="H99" s="34">
+      <c r="H99" s="33">
         <f t="shared" si="1"/>
         <v>1157894.7368421052</v>
       </c>
-      <c r="I99" s="34">
+      <c r="I99" s="33">
         <f t="shared" si="1"/>
         <v>1777777.7777777778</v>
       </c>
-      <c r="J99" s="34">
+      <c r="J99" s="33">
         <f t="shared" si="1"/>
         <v>2500000</v>
       </c>
-      <c r="K99" s="34">
+      <c r="K99" s="33">
         <f t="shared" si="1"/>
         <v>3285714.2857142854</v>
       </c>
-      <c r="L99" s="34">
+      <c r="L99" s="33">
         <f t="shared" si="1"/>
         <v>4166666.666666667</v>
       </c>
-      <c r="M99" s="34">
+      <c r="M99" s="33">
         <f t="shared" si="1"/>
         <v>5100000</v>
       </c>
-      <c r="N99" s="34">
+      <c r="N99" s="33">
         <f t="shared" si="1"/>
         <v>7777777.777777778</v>
       </c>
-      <c r="O99" s="34">
+      <c r="O99" s="33">
         <f t="shared" si="1"/>
         <v>7750000</v>
       </c>
-      <c r="P99" s="34">
+      <c r="P99" s="33">
         <f t="shared" si="1"/>
         <v>9625000</v>
       </c>
-      <c r="Q99" s="34">
+      <c r="Q99" s="33">
         <f t="shared" si="1"/>
         <v>10875000</v>
       </c>
-      <c r="R99" s="34">
+      <c r="R99" s="33">
         <f t="shared" si="1"/>
         <v>15714285.714285713</v>
       </c>
-      <c r="S99" s="34">
+      <c r="S99" s="33">
         <f t="shared" si="1"/>
         <v>15714285.714285713</v>
       </c>
-      <c r="T99" s="34">
+      <c r="T99" s="33">
         <f t="shared" si="1"/>
         <v>18571428.571428571</v>
       </c>
-      <c r="U99" s="34">
+      <c r="U99" s="33">
         <f t="shared" si="1"/>
         <v>25000000</v>
       </c>
-      <c r="V99" s="34">
+      <c r="V99" s="33">
         <f t="shared" si="1"/>
         <v>25000000</v>
       </c>
-      <c r="W99" s="34">
+      <c r="W99" s="33">
         <f t="shared" si="1"/>
         <v>36000000</v>
       </c>

--- a/document/算法.xlsx
+++ b/document/算法.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13710" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人及庄园算法" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="96">
   <si>
     <t>初始</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -55,18 +56,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>某个人=0 收到的资源减半</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>食物</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>≤0每5分钟扣血1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>水</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -79,328 +72,370 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>≤0每5分钟扣血1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>健康</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>另外计算</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊判断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>≤20 受伤状态 无法探索 给庄园收成+debuff、遭受入侵时个人不能起到作用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20+健康/2</t>
+  </si>
+  <si>
+    <t>20+健康/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20+健康/4+心情/4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+心情/50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1+心情/200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20+心情/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人读装备的属性：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>股份算法：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器需要记录的数据：某玩家为升级庄园建筑花费的资源在花费之际价值的黄金、某玩家为升级庄园建筑花费的建筑队列总时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=100000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某玩家贡献算法：某玩家为升级庄园建筑花费的资源价值总量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某玩家占股算法：1/n+[（（个人总贡献+k）/（庄园内所有玩家总贡献+nk））-1/n]*0.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄园势力=所有建筑势力之和+所有人个人战斗力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人战斗力算法：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙的耐久需要被修复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸入侵强度大致算法：=k4（k1*资源建筑+k2*武器建筑+k3*战力最高的个人战力）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸入侵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门机枪打死了20只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余博文打死了10只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易君健打死了8只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵谊鲲打死了9只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大门被攻破</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸开始疯狂破坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余博文打死了4只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易君健打死了3只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余博文打死了3只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵谊鲲打死了3只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一只僵尸被余博文击杀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵谊鲲打死了9只僵尸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易君健被僵尸重创 受伤，失去战斗能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结果：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 大门损坏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 资源损失：345000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 黄金损失：20000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 血量损失：80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸入侵后，把门和墙任意耐久度打掉，就算入侵成功，就消耗资源，否则算入侵失败，仅仅消耗墙的耐久</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸入侵算法：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄园1级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄园2级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄园3级</t>
+  </si>
+  <si>
+    <t>庄园4级</t>
+  </si>
+  <si>
+    <t>庄园5级</t>
+  </si>
+  <si>
+    <t>庄园6级</t>
+  </si>
+  <si>
+    <t>庄园7级</t>
+  </si>
+  <si>
+    <t>庄园8级</t>
+  </si>
+  <si>
+    <t>庄园9级</t>
+  </si>
+  <si>
+    <t>庄园10级</t>
+  </si>
+  <si>
+    <t>庄园11级</t>
+  </si>
+  <si>
+    <t>庄园12级</t>
+  </si>
+  <si>
+    <t>庄园13级</t>
+  </si>
+  <si>
+    <t>庄园14级</t>
+  </si>
+  <si>
+    <t>庄园15级</t>
+  </si>
+  <si>
+    <t>庄园16级</t>
+  </si>
+  <si>
+    <t>庄园17级</t>
+  </si>
+  <si>
+    <t>庄园18级</t>
+  </si>
+  <si>
+    <t>庄园19级</t>
+  </si>
+  <si>
+    <t>庄园20级</t>
+  </si>
+  <si>
+    <t>领取类仓库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大仓库资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注COC掠夺比例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限对应资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详见core表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>≤0 停止血量恢复 每5分钟扣血1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> '某个人=0 收到的资源减半</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取消</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.39997558519241921"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 全部人=0，所有资源（注意，仅仅是资源）消失 保留建筑、装备、特殊道具重新开始</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人势力=庄园建筑势力*股份+个人战斗力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>心情</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>另外计算</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>敏捷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>移速</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>智力</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊判断</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部人=0，所有资源（注意，仅仅是资源）消失 保留建筑、装备、特殊道具重新开始</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>≤20 受伤状态 无法探索 给庄园收成+debuff、遭受入侵时个人不能起到作用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20+健康/2</t>
-  </si>
-  <si>
-    <t>20+健康/2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20+健康/4+心情/4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+心情/50</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1+心情/200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>20+心情/2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人读装备的属性：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人势力=庄园建筑势力*股份+个人战斗力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>股份算法：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器需要记录的数据：某玩家为升级庄园建筑花费的资源在花费之际价值的黄金、某玩家为升级庄园建筑花费的建筑队列总时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k=100000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>某玩家贡献算法：某玩家为升级庄园建筑花费的资源价值总量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>某玩家占股算法：1/n+[（（个人总贡献+k）/（庄园内所有玩家总贡献+nk））-1/n]*0.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄园势力=所有建筑势力之和+所有人个人战斗力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人战斗力算法：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>墙的耐久需要被修复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸入侵强度大致算法：=k4（k1*资源建筑+k2*武器建筑+k3*战力最高的个人战力）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸入侵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大门机枪打死了20只僵尸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>余博文打死了10只僵尸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易君健打死了8只僵尸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵谊鲲打死了9只僵尸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大门被攻破</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸开始疯狂破坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>余博文打死了4只僵尸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易君健打死了3只僵尸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>余博文打死了3只僵尸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵谊鲲打死了3只僵尸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后一只僵尸被余博文击杀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结束</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵谊鲲打死了9只僵尸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>易君健被僵尸重创 受伤，失去战斗能力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结果：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 大门损坏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 资源损失：345000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 黄金损失：20000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 血量损失：80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸入侵后，把门和墙任意耐久度打掉，就算入侵成功，就消耗资源，否则算入侵失败，仅仅消耗墙的耐久</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸入侵算法：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掠夺比例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄园1级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄园2级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄园3级</t>
-  </si>
-  <si>
-    <t>庄园4级</t>
-  </si>
-  <si>
-    <t>庄园5级</t>
-  </si>
-  <si>
-    <t>庄园6级</t>
-  </si>
-  <si>
-    <t>庄园7级</t>
-  </si>
-  <si>
-    <t>庄园8级</t>
-  </si>
-  <si>
-    <t>庄园9级</t>
-  </si>
-  <si>
-    <t>庄园10级</t>
-  </si>
-  <si>
-    <t>庄园11级</t>
-  </si>
-  <si>
-    <t>庄园12级</t>
-  </si>
-  <si>
-    <t>庄园13级</t>
-  </si>
-  <si>
-    <t>庄园14级</t>
-  </si>
-  <si>
-    <t>庄园15级</t>
-  </si>
-  <si>
-    <t>庄园16级</t>
-  </si>
-  <si>
-    <t>庄园17级</t>
-  </si>
-  <si>
-    <t>庄园18级</t>
-  </si>
-  <si>
-    <t>庄园19级</t>
-  </si>
-  <si>
-    <t>庄园20级</t>
-  </si>
-  <si>
-    <t>领取类仓库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大仓库资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注COC掠夺比例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上限对应资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>详见core表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +503,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -599,7 +641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,6 +745,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4751,8 +4799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4762,7 +4810,7 @@
   <sheetData>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4817,7 +4865,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -4826,7 +4874,7 @@
         <v>6</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -4848,8 +4896,8 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="10" t="s">
-        <v>7</v>
+      <c r="G6" s="36" t="s">
+        <v>91</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -4872,8 +4920,8 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>26</v>
+      <c r="G7" s="37" t="s">
+        <v>92</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -4892,13 +4940,13 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="16">
         <v>50</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -4907,7 +4955,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
@@ -4926,22 +4974,22 @@
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="7">
         <v>30</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -4960,13 +5008,13 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="7">
         <v>50</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -4992,13 +5040,13 @@
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="C11" s="13">
         <v>50</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -5033,21 +5081,21 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -5058,10 +5106,10 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21">
@@ -5078,10 +5126,10 @@
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21">
@@ -5098,10 +5146,10 @@
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21">
@@ -5118,10 +5166,10 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21">
@@ -5138,10 +5186,10 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="13" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22">
@@ -5168,7 +5216,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C23" s="25"/>
       <c r="I23" s="25"/>
@@ -5176,7 +5224,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C24" s="25"/>
       <c r="I24" s="25"/>
@@ -5184,30 +5232,30 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5221,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AJ126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93:C99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92:W99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5232,17 +5280,17 @@
   <sheetData>
     <row r="7" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
@@ -5311,7 +5359,7 @@
     </row>
     <row r="23" spans="2:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
@@ -5322,7 +5370,7 @@
     </row>
     <row r="24" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L24" s="29"/>
       <c r="M24" s="29"/>
@@ -5333,7 +5381,7 @@
     </row>
     <row r="25" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
@@ -5344,7 +5392,7 @@
     </row>
     <row r="26" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L26" s="27"/>
       <c r="M26" s="27"/>
@@ -5355,7 +5403,7 @@
     </row>
     <row r="27" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
@@ -5366,7 +5414,7 @@
     </row>
     <row r="28" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B28" s="26" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="L28" s="29"/>
       <c r="M28" s="29"/>
@@ -5377,7 +5425,7 @@
     </row>
     <row r="29" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29"/>
@@ -5388,7 +5436,7 @@
     </row>
     <row r="30" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L30" s="29"/>
       <c r="M30" s="29"/>
@@ -5399,7 +5447,7 @@
     </row>
     <row r="31" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="L31" s="29"/>
       <c r="M31" s="29"/>
@@ -5410,7 +5458,7 @@
     </row>
     <row r="32" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
@@ -5421,7 +5469,7 @@
     </row>
     <row r="33" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B33" s="26" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L33" s="27"/>
       <c r="M33" s="27"/>
@@ -5432,7 +5480,7 @@
     </row>
     <row r="34" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L34" s="27"/>
       <c r="M34" s="27"/>
@@ -5443,7 +5491,7 @@
     </row>
     <row r="35" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L35" s="29"/>
       <c r="M35" s="29"/>
@@ -5454,7 +5502,7 @@
     </row>
     <row r="36" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B36" s="26" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L36" s="29"/>
       <c r="M36" s="29"/>
@@ -5465,7 +5513,7 @@
     </row>
     <row r="37" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L37" s="29"/>
       <c r="M37" s="29"/>
@@ -5476,7 +5524,7 @@
     </row>
     <row r="38" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
@@ -5487,7 +5535,7 @@
     </row>
     <row r="39" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L39" s="27"/>
       <c r="M39" s="27"/>
@@ -5498,7 +5546,7 @@
     </row>
     <row r="40" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L40" s="27"/>
       <c r="M40" s="27"/>
@@ -5509,7 +5557,7 @@
     </row>
     <row r="41" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
@@ -5520,7 +5568,7 @@
     </row>
     <row r="42" spans="2:17" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L42" s="27"/>
       <c r="M42" s="27"/>
@@ -5539,17 +5587,17 @@
     </row>
     <row r="67" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="2:26" x14ac:dyDescent="0.15">
       <c r="Z70" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="2:36" x14ac:dyDescent="0.15">
@@ -5629,73 +5677,73 @@
     </row>
     <row r="90" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B92" s="35" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C92" s="35"/>
       <c r="D92" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H92" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I92" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J92" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K92" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="L92" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F92" s="31" t="s">
+      <c r="M92" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="G92" s="31" t="s">
+      <c r="N92" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H92" s="31" t="s">
+      <c r="O92" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="I92" s="31" t="s">
+      <c r="P92" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="J92" s="31" t="s">
+      <c r="Q92" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="K92" s="31" t="s">
+      <c r="R92" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="L92" s="31" t="s">
+      <c r="S92" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="M92" s="31" t="s">
+      <c r="T92" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="N92" s="31" t="s">
+      <c r="U92" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="O92" s="31" t="s">
+      <c r="V92" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="P92" s="31" t="s">
+      <c r="W92" s="31" t="s">
         <v>81</v>
-      </c>
-      <c r="Q92" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="R92" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="S92" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="T92" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="U92" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="V92" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="W92" s="31" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="93" spans="2:36" x14ac:dyDescent="0.15">
@@ -5703,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D93" s="32">
         <v>0.5</v>
@@ -5771,7 +5819,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D94" s="32">
         <v>0.2</v>
@@ -5837,7 +5885,7 @@
     <row r="95" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B95" s="31"/>
       <c r="C95" s="34" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D95" s="32"/>
       <c r="E95" s="32"/>
@@ -5899,7 +5947,7 @@
     <row r="96" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B96" s="31"/>
       <c r="C96" s="31" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D96" s="32"/>
       <c r="E96" s="32"/>
@@ -5981,7 +6029,7 @@
         <v>3</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D97" s="32">
         <v>0.2</v>
@@ -6047,7 +6095,7 @@
     <row r="98" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B98" s="34"/>
       <c r="C98" s="34" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D98" s="32"/>
       <c r="E98" s="32"/>
@@ -6109,7 +6157,7 @@
     <row r="99" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B99" s="31"/>
       <c r="C99" s="31" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D99" s="32"/>
       <c r="E99" s="32"/>
@@ -6827,4 +6875,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/算法.xlsx
+++ b/document/算法.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="个人及庄园算法" sheetId="1" r:id="rId1"/>
@@ -743,14 +743,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3100,7 +3100,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>47623</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2666999" cy="7499107"/>
+    <xdr:ext cx="2666999" cy="7845703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="文本框 7"/>
@@ -3108,8 +3108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="822082" y="4106738"/>
-          <a:ext cx="2666999" cy="7499107"/>
+          <a:off x="820808" y="4139232"/>
+          <a:ext cx="2666999" cy="7845703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4896,7 +4896,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="35" t="s">
         <v>91</v>
       </c>
       <c r="H6" s="7"/>
@@ -4920,7 +4920,7 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="36" t="s">
         <v>92</v>
       </c>
       <c r="H7" s="13"/>
@@ -5269,8 +5269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AJ126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92:W99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5681,10 +5681,10 @@
       </c>
     </row>
     <row r="92" spans="2:36" x14ac:dyDescent="0.15">
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C92" s="35"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="31" t="s">
         <v>62</v>
       </c>
